--- a/StructureDefinition-RiskAssessment-HPA.xlsx
+++ b/StructureDefinition-RiskAssessment-HPA.xlsx
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://etatunghpa.com/StructureDefinition/RiskAssessment-HPA</t>
+    <t>https://twhpa.tsti.com/StructureDefinition/RiskAssessment-HPA</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -776,7 +776,7 @@
     <t>執行的風險評估類型。</t>
   </si>
   <si>
-    <t>https://etatunghpa.com/ValueSet/snomed-risk-assessment-code</t>
+    <t>https://twhpa.tsti.com/ValueSet/snomed-risk-assessment-code</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -788,7 +788,7 @@
     <t>RiskAssessment.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://etatunghpa.com/StructureDefinition/Patient-HPA)
+    <t xml:space="preserve">Reference(https://twhpa.tsti.com/StructureDefinition/Patient-HPA)
 </t>
   </si>
   <si>
@@ -813,7 +813,7 @@
     <t>RiskAssessment.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://etatunghpa.com/StructureDefinition/Encounter-HPA)
+    <t xml:space="preserve">Reference(https://twhpa.tsti.com/StructureDefinition/Encounter-HPA)
 </t>
   </si>
   <si>
@@ -876,7 +876,7 @@
     <t>RiskAssessment.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://etatunghpa.com/StructureDefinition/Practitioner-HPA)
+    <t xml:space="preserve">Reference(https://twhpa.tsti.com/StructureDefinition/Practitioner-HPA)
 </t>
   </si>
   <si>
@@ -1477,7 +1477,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="85.70703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="53.203125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="52.06640625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
